--- a/Buck/schematic_complete/Buck/BOM.xlsx
+++ b/Buck/schematic_complete/Buck/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ecole\insa\5A\Projet\Projet_inter_Equipe1\Buck\schematic_complete\Buck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEAB069-1630-486E-B5AE-F8E8E0DDB793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8CD5EA-FA97-44C6-83CA-67348C7DDE98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{62806743-844F-4547-8039-266B17FB7C28}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{62806743-844F-4547-8039-266B17FB7C28}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -822,9 +822,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -870,15 +867,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -891,10 +879,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1158,6 +1158,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-A4C1-463E-833A-155B87992B27}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -2396,8 +2401,8 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,13 +3512,13 @@
       <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="17"/>
+      <c r="D36" s="46"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="45" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3531,7 +3536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FC2DA1-9A61-4AC6-BC5C-6155E71F70DD}">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
@@ -3545,7 +3550,7 @@
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
@@ -3577,65 +3582,65 @@
       <c r="H1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
       <c r="L3" t="str">
         <f>A3</f>
         <v>Power components</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M3" s="44">
         <f>J18</f>
         <v>0.3498973305954825</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <v>2</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="33">
         <v>1.4</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="36">
         <f>H4*F4</f>
         <v>2.8</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="39">
         <f>I4/$I$71</f>
         <v>5.7494866529774119E-2</v>
       </c>
@@ -3643,16 +3648,16 @@
         <f>A20</f>
         <v>EMI, filtering &amp; protection</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="44">
         <f>J25</f>
         <v>0.31540041067761809</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>132</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -3671,11 +3676,11 @@
       <c r="H5" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="37">
         <f>H5*F5</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="39">
         <f t="shared" ref="J5:J68" si="0">I5/$I$71</f>
         <v>2.2792607802874745E-2</v>
       </c>
@@ -3683,13 +3688,13 @@
         <f>A27</f>
         <v>Auxiliary power supply</v>
       </c>
-      <c r="M5" s="48">
+      <c r="M5" s="44">
         <f>J35</f>
         <v>8.3778234086242298E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3713,11 +3718,11 @@
       <c r="H6" s="11">
         <v>6.03</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="37">
         <f>H6*F6</f>
         <v>6.03</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="39">
         <f t="shared" si="0"/>
         <v>0.12381930184804928</v>
       </c>
@@ -3725,16 +3730,16 @@
         <f>A37</f>
         <v>Control</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="44">
         <f>J42</f>
         <v>3.347022587268994E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>131</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -3753,11 +3758,11 @@
       <c r="H7" s="11">
         <v>0.66</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="37">
         <f>H7*F7</f>
         <v>0.66</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="39">
         <f t="shared" si="0"/>
         <v>1.3552361396303902E-2</v>
       </c>
@@ -3765,13 +3770,13 @@
         <f>A44</f>
         <v>Charge Pump</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="44">
         <f>J53</f>
         <v>7.6180698151950707E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3793,11 +3798,11 @@
       <c r="H8" s="11">
         <v>0.75</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="37">
         <f t="shared" ref="I8" si="1">H8*F8</f>
         <v>1.5</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="39">
         <f t="shared" si="0"/>
         <v>3.0800821355236138E-2</v>
       </c>
@@ -3805,13 +3810,13 @@
         <f>A55</f>
         <v>Current sense</v>
       </c>
-      <c r="M8" s="48">
+      <c r="M8" s="44">
         <f>J62</f>
         <v>9.2813141683778244E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>93</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -3833,11 +3838,11 @@
       <c r="H9" s="11">
         <v>1.73</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="37">
         <f>H9*F9</f>
         <v>1.73</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="39">
         <f t="shared" si="0"/>
         <v>3.5523613963039012E-2</v>
       </c>
@@ -3845,13 +3850,13 @@
         <f>A64</f>
         <v>Debug</v>
       </c>
-      <c r="M9" s="48">
+      <c r="M9" s="44">
         <f>J69</f>
         <v>4.8459958932238194E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3875,17 +3880,17 @@
       <c r="H10" s="11">
         <v>0.17</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="37">
         <f>H10*F10</f>
         <v>0.17</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="39">
         <f t="shared" si="0"/>
         <v>3.4907597535934294E-3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3907,17 +3912,17 @@
       <c r="H11" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="37">
         <f>H11*F11</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="39">
         <f t="shared" si="0"/>
         <v>5.9548254620123194E-3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3941,17 +3946,17 @@
       <c r="H12" s="11">
         <v>0.17</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="37">
         <f>H12*F12</f>
         <v>0.17</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="39">
         <f t="shared" si="0"/>
         <v>3.4907597535934294E-3</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3975,17 +3980,17 @@
       <c r="H13" s="11">
         <v>0.17</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="37">
         <f t="shared" ref="I13:I14" si="2">H13*F13</f>
         <v>0.17</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="39">
         <f t="shared" si="0"/>
         <v>3.4907597535934294E-3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>100</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4007,17 +4012,17 @@
       <c r="H14" s="11">
         <v>0.19</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="37">
         <f t="shared" si="2"/>
         <v>0.19</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="39">
         <f t="shared" si="0"/>
         <v>3.9014373716632442E-3</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4041,17 +4046,17 @@
       <c r="H15" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="37">
         <f>H15*F15</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="39">
         <f t="shared" si="0"/>
         <v>1.1498973305954827E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -4075,115 +4080,115 @@
       <c r="H16" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="37">
         <f>H16*F16</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="39">
         <f t="shared" si="0"/>
         <v>5.7494866529774133E-3</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <v>1</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>1.38</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="38">
         <f>H17*F17</f>
         <v>1.38</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="39">
         <f t="shared" si="0"/>
         <v>2.8336755646817244E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I18" s="47">
+      <c r="I18" s="43">
         <f>SUM(I4:I17)</f>
         <v>17.04</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="41">
         <f t="shared" si="0"/>
         <v>0.3498973305954825</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J19" s="43"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="43"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <v>1</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34">
+      <c r="G21" s="32"/>
+      <c r="H21" s="33">
         <v>0.39</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="36">
         <f>H21*F21</f>
         <v>0.39</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="39">
         <f t="shared" si="0"/>
         <v>8.0082135523613963E-3</v>
       </c>
-      <c r="L21" s="50" t="s">
+      <c r="L21" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="26">
         <v>7448042001</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -4207,22 +4212,22 @@
       <c r="H22" s="11">
         <v>11.39</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="37">
         <f t="shared" ref="I22:I40" si="3">H22*F22</f>
         <v>11.39</v>
       </c>
-      <c r="J22" s="43">
+      <c r="J22" s="39">
         <f t="shared" si="0"/>
         <v>0.23388090349075974</v>
       </c>
-      <c r="L22" s="50" t="s">
+      <c r="L22" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -4246,128 +4251,128 @@
       <c r="H23" s="11">
         <v>2.74</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23" s="37">
         <f t="shared" si="3"/>
         <v>2.74</v>
       </c>
-      <c r="J23" s="43">
+      <c r="J23" s="39">
         <f t="shared" si="0"/>
         <v>5.6262833675564686E-2</v>
       </c>
-      <c r="L23" s="50" t="s">
+      <c r="L23" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="25">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="38">
         <f>H24*F24</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="J24" s="43">
+      <c r="J24" s="39">
         <f t="shared" si="0"/>
         <v>1.724845995893224E-2</v>
       </c>
-      <c r="L24" s="51" t="s">
+      <c r="L24" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="46">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="42">
         <f>SUM(I21:I24)</f>
         <v>15.360000000000001</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="41">
         <f t="shared" si="0"/>
         <v>0.31540041067761809</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J26" s="43"/>
+      <c r="J26" s="39"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="43"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34">
+      <c r="G28" s="32"/>
+      <c r="H28" s="33">
         <v>0.75</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="36">
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="J28" s="43">
+      <c r="J28" s="39">
         <f t="shared" si="0"/>
         <v>1.5400410677618069E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -4389,17 +4394,17 @@
       <c r="H29" s="11">
         <v>0.8</v>
       </c>
-      <c r="I29" s="41">
-        <f>H29*F29</f>
+      <c r="I29" s="37">
+        <f t="shared" ref="I29:I34" si="4">H29*F29</f>
         <v>0.8</v>
       </c>
-      <c r="J29" s="43">
+      <c r="J29" s="39">
         <f t="shared" si="0"/>
         <v>1.6427104722792608E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -4421,17 +4426,17 @@
       <c r="H30" s="11">
         <v>0.78</v>
       </c>
-      <c r="I30" s="41">
-        <f>H30*F30</f>
+      <c r="I30" s="37">
+        <f t="shared" si="4"/>
         <v>0.78</v>
       </c>
-      <c r="J30" s="43">
+      <c r="J30" s="39">
         <f t="shared" si="0"/>
         <v>1.6016427104722793E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4453,17 +4458,17 @@
       <c r="H31" s="11">
         <v>0.19</v>
       </c>
-      <c r="I31" s="41">
-        <f>H31*F31</f>
+      <c r="I31" s="37">
+        <f t="shared" si="4"/>
         <v>0.19</v>
       </c>
-      <c r="J31" s="43">
+      <c r="J31" s="39">
         <f t="shared" si="0"/>
         <v>3.9014373716632442E-3</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -4487,17 +4492,17 @@
       <c r="H32" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I32" s="41">
-        <f>H32*F32</f>
+      <c r="I32" s="37">
+        <f t="shared" si="4"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="J32" s="43">
+      <c r="J32" s="39">
         <f t="shared" si="0"/>
         <v>1.1498973305954827E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -4521,120 +4526,120 @@
       <c r="H33" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I33" s="41">
-        <f>H33*F33</f>
+      <c r="I33" s="37">
+        <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="J33" s="43">
+      <c r="J33" s="39">
         <f t="shared" si="0"/>
         <v>5.7494866529774133E-3</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="25">
         <v>0.72</v>
       </c>
-      <c r="I34" s="42">
-        <f>H34*F34</f>
+      <c r="I34" s="38">
+        <f t="shared" si="4"/>
         <v>0.72</v>
       </c>
-      <c r="J34" s="43">
+      <c r="J34" s="39">
         <f t="shared" si="0"/>
         <v>1.4784394250513345E-2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="46">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="42">
         <f>SUM(I28:I34)</f>
         <v>4.08</v>
       </c>
-      <c r="J35" s="45">
+      <c r="J35" s="41">
         <f t="shared" si="0"/>
         <v>8.3778234086242298E-2</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J36" s="43"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="43"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="G38" s="31" t="s">
+      <c r="G38" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="33">
         <v>0.17</v>
       </c>
-      <c r="I38" s="40">
+      <c r="I38" s="36">
         <f t="shared" si="3"/>
         <v>0.34</v>
       </c>
-      <c r="J38" s="43">
+      <c r="J38" s="39">
         <f t="shared" si="0"/>
         <v>6.9815195071868588E-3</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -4658,17 +4663,17 @@
       <c r="H39" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I39" s="41">
+      <c r="I39" s="37">
         <f>H39*F39</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="J39" s="43">
+      <c r="J39" s="39">
         <f t="shared" si="0"/>
         <v>1.1498973305954827E-2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -4692,108 +4697,108 @@
       <c r="H40" s="11">
         <v>0.17</v>
       </c>
-      <c r="I40" s="41">
+      <c r="I40" s="37">
         <f t="shared" si="3"/>
         <v>0.34</v>
       </c>
-      <c r="J40" s="43">
+      <c r="J40" s="39">
         <f t="shared" si="0"/>
         <v>6.9815195071868588E-3</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="24">
         <v>1</v>
       </c>
-      <c r="G41" s="28"/>
-      <c r="H41" s="26">
+      <c r="G41" s="27"/>
+      <c r="H41" s="25">
         <v>0.39</v>
       </c>
-      <c r="I41" s="42">
+      <c r="I41" s="38">
         <f>H41*F41</f>
         <v>0.39</v>
       </c>
-      <c r="J41" s="43">
+      <c r="J41" s="39">
         <f t="shared" si="0"/>
         <v>8.0082135523613963E-3</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I42" s="44">
+      <c r="I42" s="40">
         <f>SUM(I38:I41)</f>
         <v>1.6300000000000003</v>
       </c>
-      <c r="J42" s="45">
+      <c r="J42" s="41">
         <f t="shared" si="0"/>
         <v>3.347022587268994E-2</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J43" s="43"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="43"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="39"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F45" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="G45" s="33"/>
-      <c r="H45" s="34">
+      <c r="G45" s="32"/>
+      <c r="H45" s="33">
         <v>0.19</v>
       </c>
-      <c r="I45" s="40">
+      <c r="I45" s="36">
         <f>H45*F45</f>
         <v>0.38</v>
       </c>
-      <c r="J45" s="43">
+      <c r="J45" s="39">
         <f t="shared" si="0"/>
         <v>7.8028747433264885E-3</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -4815,17 +4820,17 @@
       <c r="H46" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I46" s="41">
+      <c r="I46" s="37">
         <f>H46*F46</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="J46" s="43">
+      <c r="J46" s="39">
         <f t="shared" si="0"/>
         <v>5.9548254620123194E-3</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>95</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -4847,17 +4852,17 @@
       <c r="H47" s="11">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I47" s="41">
+      <c r="I47" s="37">
         <f>H47*F47</f>
         <v>1.1399999999999999</v>
       </c>
-      <c r="J47" s="43">
+      <c r="J47" s="39">
         <f t="shared" si="0"/>
         <v>2.3408624229979462E-2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -4881,17 +4886,17 @@
       <c r="H48" s="11">
         <v>0.17</v>
       </c>
-      <c r="I48" s="41">
-        <f t="shared" ref="I48" si="4">H48*F48</f>
+      <c r="I48" s="37">
+        <f t="shared" ref="I48" si="5">H48*F48</f>
         <v>0.17</v>
       </c>
-      <c r="J48" s="43">
+      <c r="J48" s="39">
         <f t="shared" si="0"/>
         <v>3.4907597535934294E-3</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -4915,17 +4920,17 @@
       <c r="H49" s="11">
         <v>0.72</v>
       </c>
-      <c r="I49" s="41">
+      <c r="I49" s="37">
         <f>H49*F49</f>
         <v>0.72</v>
       </c>
-      <c r="J49" s="43">
+      <c r="J49" s="39">
         <f t="shared" si="0"/>
         <v>1.4784394250513345E-2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -4949,17 +4954,17 @@
       <c r="H50" s="11">
         <v>0.17</v>
       </c>
-      <c r="I50" s="41">
-        <f t="shared" ref="I50" si="5">H50*F50</f>
+      <c r="I50" s="37">
+        <f t="shared" ref="I50" si="6">H50*F50</f>
         <v>0.17</v>
       </c>
-      <c r="J50" s="43">
+      <c r="J50" s="39">
         <f t="shared" si="0"/>
         <v>3.4907597535934294E-3</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -4983,110 +4988,110 @@
       <c r="H51" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I51" s="41">
+      <c r="I51" s="37">
         <f>H51*F51</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="J51" s="43">
+      <c r="J51" s="39">
         <f t="shared" si="0"/>
         <v>5.7494866529774133E-3</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E52" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="26">
+      <c r="H52" s="25">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I52" s="42">
+      <c r="I52" s="38">
         <f>H52*F52</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="J52" s="43">
+      <c r="J52" s="39">
         <f t="shared" si="0"/>
         <v>1.1498973305954827E-2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I53" s="44">
+      <c r="I53" s="40">
         <f>SUM(I45:I52)</f>
         <v>3.7099999999999995</v>
       </c>
-      <c r="J53" s="45">
+      <c r="J53" s="41">
         <f t="shared" si="0"/>
         <v>7.6180698151950707E-2</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J54" s="43"/>
+      <c r="J54" s="39"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="43"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="39"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="32">
+      <c r="F56" s="31">
         <v>1</v>
       </c>
-      <c r="G56" s="33"/>
-      <c r="H56" s="34">
+      <c r="G56" s="32"/>
+      <c r="H56" s="33">
         <v>1.9</v>
       </c>
-      <c r="I56" s="40">
+      <c r="I56" s="36">
         <f>H56*F56</f>
         <v>1.9</v>
       </c>
-      <c r="J56" s="43">
+      <c r="J56" s="39">
         <f t="shared" si="0"/>
         <v>3.9014373716632439E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="20" t="s">
         <v>66</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -5110,17 +5115,17 @@
       <c r="H57" s="11">
         <v>1.72</v>
       </c>
-      <c r="I57" s="41">
+      <c r="I57" s="37">
         <f>H57*F57</f>
         <v>1.72</v>
       </c>
-      <c r="J57" s="43">
+      <c r="J57" s="39">
         <f t="shared" si="0"/>
         <v>3.5318275154004104E-2</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -5144,17 +5149,17 @@
       <c r="H58" s="11">
         <v>0.17</v>
       </c>
-      <c r="I58" s="41">
-        <f t="shared" ref="I58" si="6">H58*F58</f>
+      <c r="I58" s="37">
+        <f t="shared" ref="I58" si="7">H58*F58</f>
         <v>0.17</v>
       </c>
-      <c r="J58" s="43">
+      <c r="J58" s="39">
         <f t="shared" si="0"/>
         <v>3.4907597535934294E-3</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -5178,17 +5183,17 @@
       <c r="H59" s="11">
         <v>0.17</v>
       </c>
-      <c r="I59" s="41">
+      <c r="I59" s="37">
         <f>H59*F59</f>
         <v>0.17</v>
       </c>
-      <c r="J59" s="43">
+      <c r="J59" s="39">
         <f t="shared" si="0"/>
         <v>3.4907597535934294E-3</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -5212,110 +5217,110 @@
       <c r="H60" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I60" s="41">
-        <f t="shared" ref="I60" si="7">H60*F60</f>
+      <c r="I60" s="37">
+        <f t="shared" ref="I60" si="8">H60*F60</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="J60" s="43">
+      <c r="J60" s="39">
         <f t="shared" si="0"/>
         <v>5.7494866529774133E-3</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E61" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F61" s="25" t="s">
+      <c r="F61" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G61" s="24" t="s">
+      <c r="G61" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H61" s="26">
+      <c r="H61" s="25">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I61" s="42">
+      <c r="I61" s="38">
         <f>H61*F61</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="J61" s="43">
+      <c r="J61" s="39">
         <f t="shared" si="0"/>
         <v>5.7494866529774133E-3</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I62" s="44">
+      <c r="I62" s="40">
         <f>SUM(I56:I61)</f>
         <v>4.5200000000000005</v>
       </c>
-      <c r="J62" s="45">
+      <c r="J62" s="41">
         <f t="shared" si="0"/>
         <v>9.2813141683778244E-2</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J63" s="43"/>
+      <c r="J63" s="39"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="43"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="39"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="E65" s="31" t="s">
+      <c r="E65" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F65" s="32">
+      <c r="F65" s="31">
         <v>1</v>
       </c>
-      <c r="G65" s="33"/>
-      <c r="H65" s="34">
+      <c r="G65" s="32"/>
+      <c r="H65" s="33">
         <v>0.06</v>
       </c>
-      <c r="I65" s="40">
+      <c r="I65" s="36">
         <f>H65*F65</f>
         <v>0.06</v>
       </c>
-      <c r="J65" s="43">
+      <c r="J65" s="39">
         <f t="shared" si="0"/>
         <v>1.2320328542094455E-3</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -5339,17 +5344,17 @@
       <c r="H66" s="11">
         <v>0.17</v>
       </c>
-      <c r="I66" s="41">
-        <f t="shared" ref="I66" si="8">H66*F66</f>
+      <c r="I66" s="37">
+        <f t="shared" ref="I66" si="9">H66*F66</f>
         <v>0.17</v>
       </c>
-      <c r="J66" s="43">
+      <c r="J66" s="39">
         <f t="shared" si="0"/>
         <v>3.4907597535934294E-3</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -5371,86 +5376,86 @@
       <c r="H67" s="11">
         <v>0.05</v>
       </c>
-      <c r="I67" s="41">
+      <c r="I67" s="37">
         <f>H67*F67</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J67" s="43">
+      <c r="J67" s="39">
         <f t="shared" si="0"/>
         <v>6.1601642710472282E-3</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="E68" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="25">
+      <c r="F68" s="24">
         <v>1</v>
       </c>
-      <c r="G68" s="28"/>
-      <c r="H68" s="26">
+      <c r="G68" s="27"/>
+      <c r="H68" s="25">
         <v>1.83</v>
       </c>
-      <c r="I68" s="42">
+      <c r="I68" s="38">
         <f>H68*F68</f>
         <v>1.83</v>
       </c>
-      <c r="J68" s="43">
+      <c r="J68" s="39">
         <f t="shared" si="0"/>
         <v>3.7577002053388091E-2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I69" s="44">
+      <c r="I69" s="40">
         <f>SUM(I65:I68)</f>
         <v>2.3600000000000003</v>
       </c>
-      <c r="J69" s="45">
-        <f t="shared" ref="J69:J71" si="9">I69/$I$71</f>
+      <c r="J69" s="41">
+        <f t="shared" ref="J69:J71" si="10">I69/$I$71</f>
         <v>4.8459958932238194E-2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J70" s="43"/>
+      <c r="J70" s="39"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
         <v>153</v>
       </c>
-      <c r="I71" s="39">
+      <c r="I71" s="35">
         <f>I69+I62+I53+I42+I35+I25+I18</f>
         <v>48.7</v>
       </c>
-      <c r="J71" s="43">
-        <f t="shared" si="9"/>
+      <c r="J71" s="39">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A27:I27"/>
     <mergeCell ref="L24:N24"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="L21:N21"/>
     <mergeCell ref="L22:N22"/>
     <mergeCell ref="L23:N23"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
